--- a/Adhesion_dyson.xlsx
+++ b/Adhesion_dyson.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\Flexible fusing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DE8C0D-A24B-4DEA-AB04-60782AB5A0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B157B8-1C8E-4424-8168-6B80D7FA887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RH30" sheetId="3" r:id="rId1"/>
     <sheet name="RH40" sheetId="2" r:id="rId2"/>
     <sheet name="RH50" sheetId="1" r:id="rId3"/>
     <sheet name="RH60" sheetId="4" r:id="rId4"/>
+    <sheet name="1-1.8 50%" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Khaki (5v)</t>
   </si>
@@ -136,6 +137,30 @@
   </si>
   <si>
     <t>1 failed pickup, 2 fall during transitioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picks 2 layers 4 times </t>
+  </si>
+  <si>
+    <t>Picks 2 layers 2 times</t>
+  </si>
+  <si>
+    <t>Picks 2 layers 1 times, 1 failed due to threading at corners</t>
+  </si>
+  <si>
+    <t>Light Interlining(2.v)</t>
+  </si>
+  <si>
+    <t>1 failed due to threads</t>
+  </si>
+  <si>
+    <t>Military (4.5v)</t>
+  </si>
+  <si>
+    <t>Khaki (4.5v)</t>
+  </si>
+  <si>
+    <t>Heavy Interlining (4.5v)</t>
   </si>
 </sst>
 </file>
@@ -955,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5917DFA-61F2-4155-903F-EAC9AC131E8F}">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1116,4 +1141,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF985522-95A7-4B73-B4D8-5A388F1D5D45}">
+  <dimension ref="B1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Adhesion_dyson.xlsx
+++ b/Adhesion_dyson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\Flexible fusing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hehon\Desktop\Flexible Fusing\FF_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B157B8-1C8E-4424-8168-6B80D7FA887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868DF5E-33B5-4BF7-B2B4-7C9683C486B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RH30" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="RH50" sheetId="1" r:id="rId3"/>
     <sheet name="RH60" sheetId="4" r:id="rId4"/>
     <sheet name="1-1.8 50%" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Khaki (5v)</t>
   </si>
@@ -161,6 +162,24 @@
   </si>
   <si>
     <t>Heavy Interlining (4.5v)</t>
+  </si>
+  <si>
+    <t>Best voltage @ different humidity</t>
+  </si>
+  <si>
+    <t>Lighter Int</t>
+  </si>
+  <si>
+    <t>Heavier Int</t>
+  </si>
+  <si>
+    <t>Khaki Fabirc</t>
+  </si>
+  <si>
+    <t>Military Fabric</t>
+  </si>
+  <si>
+    <t>Successful Rate</t>
   </si>
 </sst>
 </file>
@@ -208,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -220,9 +239,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -235,6 +255,2095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Lighter Interlining</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Best Voltage vs Humidity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lighter Int</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$F$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F9B-45E3-A440-F0E71B6F19F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="750849248"/>
+        <c:axId val="750839264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750849248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750839264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="750839264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750849248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Successful Rate at Best Voltage vs Humidity</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lighter Int</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$11:$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-590E-461D-B4CE-2D70945236B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heavier Int</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$11:$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-590E-461D-B4CE-2D70945236B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Khaki Fabirc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$11:$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-590E-461D-B4CE-2D70945236B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Military Fabric</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$F$11:$I$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-590E-461D-B4CE-2D70945236B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="750853408"/>
+        <c:axId val="750846752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750853408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750846752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="750846752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750853408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA56BEC9-DED2-422B-AB70-0A15BBA24AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC477D5-7D43-47F6-8A7B-EBE158C59772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,12 +2612,12 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -523,7 +2632,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -536,7 +2645,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -555,7 +2664,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -566,7 +2675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -585,7 +2694,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -598,7 +2707,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -611,7 +2720,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -624,7 +2733,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -637,7 +2746,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -648,7 +2757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -661,7 +2770,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -680,7 +2789,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -699,7 +2808,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -712,7 +2821,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -730,17 +2839,17 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -753,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -764,7 +2873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -775,7 +2884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
@@ -786,16 +2895,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -806,7 +2915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -817,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -828,36 +2937,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E29" s="5"/>
     </row>
   </sheetData>
@@ -873,17 +2982,17 @@
       <selection activeCell="A13" activeCellId="3" sqref="A4:XFD4 A10:XFD10 A12:XFD12 A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -896,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -907,7 +3016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -918,16 +3027,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -938,10 +3047,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -952,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -963,12 +3072,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
     </row>
   </sheetData>
@@ -984,9 +3093,9 @@
       <selection activeCell="B1" sqref="B1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -998,7 +3107,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1008,7 +3117,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +3133,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +3144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1045,7 +3154,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1055,7 +3164,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1065,7 +3174,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1075,7 +3184,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1085,7 +3194,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +3205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1106,7 +3215,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +3226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +3237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1147,13 +3256,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF985522-95A7-4B73-B4D8-5A388F1D5D45}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1165,7 +3274,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1175,7 +3284,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1191,7 +3300,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +3311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +3327,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +3343,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +3360,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1261,7 +3370,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1271,7 +3380,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +3397,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1298,7 +3407,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1315,7 +3424,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1335,4 +3444,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14F7DBA-E9D5-4BBA-859F-16811A57AC75}">
+  <dimension ref="C2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>3.5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2.1</v>
+      </c>
+      <c r="I4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>